--- a/Mapping_Doc_ETL_Testing_Automation.xlsx
+++ b/Mapping_Doc_ETL_Testing_Automation.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Deepak Tiwary\Desktop\ETL_Testing_Automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3DBDDD6C-CFDE-427C-BB5A-C4074031F4EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{13D15407-6880-44D3-89B1-33CCF0550251}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" activeTab="1" xr2:uid="{A9AA6440-F5AA-4E4C-B912-72845CDAB033}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{A9AA6440-F5AA-4E4C-B912-72845CDAB033}"/>
   </bookViews>
   <sheets>
     <sheet name="sales_fact" sheetId="1" r:id="rId1"/>
     <sheet name="sales_agg" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,6 +28,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="27">
   <si>
     <t>S.N</t>
   </si>
@@ -65,6 +66,9 @@
     <t>sales_id</t>
   </si>
   <si>
+    <t>date</t>
+  </si>
+  <si>
     <t>customer</t>
   </si>
   <si>
@@ -114,18 +118,6 @@
   </si>
   <si>
     <t>total_quantity</t>
-  </si>
-  <si>
-    <t>date_dim</t>
-  </si>
-  <si>
-    <t>purchase_quantity</t>
-  </si>
-  <si>
-    <t>per_unit_price</t>
-  </si>
-  <si>
-    <t>group by customer_id</t>
   </si>
 </sst>
 </file>
@@ -696,20 +688,20 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -732,7 +724,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -743,80 +735,80 @@
         <v>8</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>8</v>
       </c>
       <c r="G2" s="9"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -824,20 +816,20 @@
         <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -845,20 +837,20 @@
         <v>7</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -866,16 +858,16 @@
         <v>7</v>
       </c>
       <c r="C8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>19</v>
-      </c>
       <c r="F8" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G8" s="6"/>
     </row>
@@ -889,20 +881,20 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -925,72 +917,68 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G2" s="9"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>29</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G4" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
